--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100847.6433193466</v>
+        <v>18339821.30884915</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100847.6433193466</v>
+        <v>18339821.30884915</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>275806.27483956</v>
+        <v>33435565.32924717</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>275806.27483956</v>
+        <v>33435565.32924717</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1603292327.054561</v>
+        <v>20619575.33640201</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18896.34120278062</v>
+        <v>541809.6551824571</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37084.69727283718</v>
+        <v>955555.2100490613</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55338.11506372351</v>
+        <v>1369300.764915665</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73906.95955292754</v>
+        <v>1691871.66750234</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>92173.17355258313</v>
+        <v>2127026.742587235</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>110285.0264455934</v>
+        <v>2540664.737638768</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>128396.8793386037</v>
+        <v>2954302.732690301</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>146508.5175635058</v>
+        <v>3367940.727741835</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>165077.7440189277</v>
+        <v>3690544.922652128</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>183343.5704450223</v>
+        <v>4125699.997596186</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>201455.5962448239</v>
+        <v>4539337.992540154</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219567.2762329351</v>
+        <v>4952975.987484123</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>237679.3020327719</v>
+        <v>5366613.982428092</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256237.6578860123</v>
+        <v>5692719.477513585</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>276317.2427449826</v>
+        <v>5920315.047270444</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>50.99999999992148</v>
@@ -27052,13 +27052,13 @@
         <v>26.00000004030947</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>24.99999995958145</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27150,7 +27150,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27174,7 +27174,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
